--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W15_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W15_H200_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7123287671232876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5106382978723404</v>
+        <v>0.4984802431610942</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.109996989867164</v>
+        <v>0.1081041014760563</v>
       </c>
       <c r="J2" t="n">
-        <v>1470.362826710269</v>
+        <v>1436.210488200775</v>
       </c>
       <c r="K2" t="n">
-        <v>2958942.435691207</v>
+        <v>2745054.857024363</v>
       </c>
       <c r="L2" t="n">
-        <v>1720.157677566568</v>
+        <v>1656.820707567467</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4436540364581252</v>
+        <v>0.4838695842861946</v>
       </c>
     </row>
   </sheetData>
